--- a/Code/Results/Cases/Case_2_75/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_75/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.46675838829504</v>
+        <v>8.07237213759527</v>
       </c>
       <c r="C2">
-        <v>7.070124585798025</v>
+        <v>6.512864414584072</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.08484778719956</v>
+        <v>22.09403190657481</v>
       </c>
       <c r="F2">
-        <v>29.53320629490334</v>
+        <v>39.12605133402863</v>
       </c>
       <c r="G2">
-        <v>18.13159220308292</v>
+        <v>26.56048421267059</v>
       </c>
       <c r="H2">
-        <v>8.269522885850259</v>
+        <v>13.90256766727107</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.947829996302097</v>
+        <v>8.007559211981116</v>
       </c>
       <c r="K2">
-        <v>11.23262434111771</v>
+        <v>8.393281421867323</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.97958691467926</v>
+        <v>17.54802599774226</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.86767881571588</v>
+        <v>20.83846181071202</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.72136197335987</v>
+        <v>7.749888442166207</v>
       </c>
       <c r="C3">
-        <v>6.901828586555657</v>
+        <v>6.450974607636262</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.26925332247648</v>
+        <v>21.98251909181441</v>
       </c>
       <c r="F3">
-        <v>28.66683206765229</v>
+        <v>39.1018885575188</v>
       </c>
       <c r="G3">
-        <v>18.29562253689232</v>
+        <v>26.71961725655055</v>
       </c>
       <c r="H3">
-        <v>8.397477354072921</v>
+        <v>13.95833118891351</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.984262092333957</v>
+        <v>8.020243561036033</v>
       </c>
       <c r="K3">
-        <v>10.70497925991608</v>
+        <v>8.152089365108889</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.19729497956926</v>
+        <v>17.40116286893877</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.06618509102477</v>
+        <v>20.94148841720897</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.23849130967124</v>
+        <v>7.545457142182801</v>
       </c>
       <c r="C4">
-        <v>6.797052279959083</v>
+        <v>6.412815969858654</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.75906357408192</v>
+        <v>21.91835575016834</v>
       </c>
       <c r="F4">
-        <v>28.1473987286595</v>
+        <v>39.09715229159593</v>
       </c>
       <c r="G4">
-        <v>18.42339375731586</v>
+        <v>26.82594073110578</v>
       </c>
       <c r="H4">
-        <v>8.480514877926128</v>
+        <v>13.99466129540606</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.007355787433961</v>
+        <v>8.02845537339339</v>
       </c>
       <c r="K4">
-        <v>10.36685166807096</v>
+        <v>7.999041116220683</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.69961851894897</v>
+        <v>17.31306760782924</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.19893856239116</v>
+        <v>21.00904615021305</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.03541993019106</v>
+        <v>7.460652288691719</v>
       </c>
       <c r="C5">
-        <v>6.754035588255793</v>
+        <v>6.397237151163668</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.54907776502269</v>
+        <v>21.89331157538708</v>
       </c>
       <c r="F5">
-        <v>27.93912181330429</v>
+        <v>39.09776444106825</v>
       </c>
       <c r="G5">
-        <v>18.48187210929816</v>
+        <v>26.87142534170224</v>
       </c>
       <c r="H5">
-        <v>8.515451237248842</v>
+        <v>14.00999252208824</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.016951532814973</v>
+        <v>8.031908559026929</v>
       </c>
       <c r="K5">
-        <v>10.22560302659629</v>
+        <v>7.935486393337694</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.4926683669242</v>
+        <v>17.27772253212763</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.25565218815619</v>
+        <v>21.03765694670859</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.00132112629116</v>
+        <v>7.446483796658128</v>
       </c>
       <c r="C6">
-        <v>6.746874709036049</v>
+        <v>6.394648874626623</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.51409336174498</v>
+        <v>21.88922017988474</v>
       </c>
       <c r="F6">
-        <v>27.90474992932426</v>
+        <v>39.09801966868724</v>
       </c>
       <c r="G6">
-        <v>18.49195830397694</v>
+        <v>26.87910802500005</v>
       </c>
       <c r="H6">
-        <v>8.521317969993941</v>
+        <v>14.01257007243376</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.01855614407636</v>
+        <v>8.032488417341966</v>
       </c>
       <c r="K6">
-        <v>10.20194316674928</v>
+        <v>7.924863374582711</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.45806144646374</v>
+        <v>17.2718879015235</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.26522414650652</v>
+        <v>21.04247299056426</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.23577805611128</v>
+        <v>7.544319330832673</v>
       </c>
       <c r="C7">
-        <v>6.796473376731203</v>
+        <v>6.412605970963395</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.75623964260942</v>
+        <v>21.91801350461384</v>
       </c>
       <c r="F7">
-        <v>28.144575755165</v>
+        <v>39.09715025200465</v>
       </c>
       <c r="G7">
-        <v>18.42415697186045</v>
+        <v>26.82654543158847</v>
       </c>
       <c r="H7">
-        <v>8.480981630021441</v>
+        <v>13.99486592546768</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.007484446863006</v>
+        <v>8.028501511419659</v>
       </c>
       <c r="K7">
-        <v>10.36496059923156</v>
+        <v>7.998188715711542</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.69684397167988</v>
+        <v>17.3125886457797</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.19969298090423</v>
+        <v>21.00942763132252</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.2149927207752</v>
+        <v>7.962579876998153</v>
       </c>
       <c r="C8">
-        <v>7.012420444738778</v>
+        <v>6.491564132924892</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.80574424644276</v>
+        <v>22.05470112598596</v>
       </c>
       <c r="F8">
-        <v>29.23202883906601</v>
+        <v>39.11562588711112</v>
       </c>
       <c r="G8">
-        <v>18.18229499742502</v>
+        <v>26.61355955350428</v>
       </c>
       <c r="H8">
-        <v>8.312696184864537</v>
+        <v>13.92136128297713</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.96024316365829</v>
+        <v>8.011845041423625</v>
       </c>
       <c r="K8">
-        <v>11.05368353701518</v>
+        <v>8.311181160843494</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.7135715626289</v>
+        <v>17.49697527558681</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.93379393447366</v>
+        <v>20.87309279951047</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.93439775495983</v>
+        <v>8.72730455506335</v>
       </c>
       <c r="C9">
-        <v>7.422696507768714</v>
+        <v>6.644671526207248</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>19.77854952981481</v>
+        <v>22.35595706765501</v>
       </c>
       <c r="F9">
-        <v>31.45331376369517</v>
+        <v>39.23180111312269</v>
       </c>
       <c r="G9">
-        <v>17.94065156797428</v>
+        <v>26.26467276258893</v>
       </c>
       <c r="H9">
-        <v>8.019540217056226</v>
+        <v>13.79378355373219</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.873218521615264</v>
+        <v>7.982529103854138</v>
       </c>
       <c r="K9">
-        <v>12.28850345829902</v>
+        <v>8.883271754203442</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.56211399367554</v>
+        <v>17.87362624143405</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.50440813401624</v>
+        <v>20.63987555342926</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.07480618199333</v>
+        <v>9.250178083927327</v>
       </c>
       <c r="C10">
-        <v>7.713943128430897</v>
+        <v>6.755474865346585</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.16453409787598</v>
+        <v>22.59616506335212</v>
       </c>
       <c r="F10">
-        <v>33.12620145771827</v>
+        <v>39.36551443638805</v>
       </c>
       <c r="G10">
-        <v>17.92971944118363</v>
+        <v>26.05084901273964</v>
       </c>
       <c r="H10">
-        <v>7.828766034027759</v>
+        <v>13.71011255047846</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.812512738367285</v>
+        <v>7.963012390403673</v>
       </c>
       <c r="K10">
-        <v>13.12159021202426</v>
+        <v>9.275349711846923</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.99213226793502</v>
+        <v>18.15757844075192</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.25384266187713</v>
+        <v>20.4893744171612</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.5670338376657</v>
+        <v>9.478724602086116</v>
       </c>
       <c r="C11">
-        <v>7.843837188730535</v>
+        <v>6.805384763727071</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.77958180303419</v>
+        <v>22.70922197085715</v>
       </c>
       <c r="F11">
-        <v>33.89370947757811</v>
+        <v>39.43672348465761</v>
       </c>
       <c r="G11">
-        <v>17.96616284860747</v>
+        <v>25.96292734409658</v>
       </c>
       <c r="H11">
-        <v>7.747878041005449</v>
+        <v>13.67422522809042</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.78555336191311</v>
+        <v>7.954568704086784</v>
       </c>
       <c r="K11">
-        <v>13.4839972565989</v>
+        <v>9.447081107701552</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.63076914981642</v>
+        <v>18.28789861916003</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.1561073262754</v>
+        <v>20.42544191791515</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.7496258168195</v>
+        <v>9.563871658248404</v>
       </c>
       <c r="C12">
-        <v>7.892623031533015</v>
+        <v>6.824202289875052</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.01016434598356</v>
+        <v>22.75254945127564</v>
       </c>
       <c r="F12">
-        <v>34.18511061138793</v>
+        <v>39.46516788355863</v>
       </c>
       <c r="G12">
-        <v>17.98633316230631</v>
+        <v>25.93098811200776</v>
       </c>
       <c r="H12">
-        <v>7.718149631049897</v>
+        <v>13.66094789199036</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.775435092824107</v>
+        <v>7.951433487329205</v>
       </c>
       <c r="K12">
-        <v>13.61882188723513</v>
+        <v>9.511122054316164</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.867745956439</v>
+        <v>18.3373765677607</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.12163183705641</v>
+        <v>20.40188484843816</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.71047026681773</v>
+        <v>9.545596775074515</v>
       </c>
       <c r="C13">
-        <v>7.882134443339137</v>
+        <v>6.820153431823726</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.96060888083126</v>
+        <v>22.74319565724533</v>
       </c>
       <c r="F13">
-        <v>34.12232069178913</v>
+        <v>39.45897633268266</v>
       </c>
       <c r="G13">
-        <v>17.98169943044586</v>
+        <v>25.93780637417803</v>
       </c>
       <c r="H13">
-        <v>7.724511121267817</v>
+        <v>13.66379351458074</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.777610271360724</v>
+        <v>7.95210594913239</v>
       </c>
       <c r="K13">
-        <v>13.58989257940106</v>
+        <v>9.497374269095751</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.81692391804167</v>
+        <v>18.32671547336532</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.12894070065278</v>
+        <v>20.40692923261631</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.58213192657112</v>
+        <v>9.485758041504187</v>
       </c>
       <c r="C14">
-        <v>7.847859044987534</v>
+        <v>6.806934604365003</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.79859899631284</v>
+        <v>22.71277639107897</v>
       </c>
       <c r="F14">
-        <v>33.91766882886881</v>
+        <v>39.43903406598618</v>
       </c>
       <c r="G14">
-        <v>17.967692304478</v>
+        <v>25.96027247166823</v>
       </c>
       <c r="H14">
-        <v>7.74541385335387</v>
+        <v>13.67312663436376</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.78471913051956</v>
+        <v>7.954309522369983</v>
       </c>
       <c r="K14">
-        <v>13.49513781180944</v>
+        <v>9.452369834193524</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.65036242439186</v>
+        <v>18.29196683380786</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.15321901800527</v>
+        <v>20.42349077389066</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.50302611139859</v>
+        <v>9.448921335366661</v>
       </c>
       <c r="C15">
-        <v>7.82681118789768</v>
+        <v>6.798826652093746</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.6990582637241</v>
+        <v>22.69420994080878</v>
       </c>
       <c r="F15">
-        <v>33.79240832066388</v>
+        <v>39.42701102617331</v>
       </c>
       <c r="G15">
-        <v>17.95995406473738</v>
+        <v>25.97421035281895</v>
       </c>
       <c r="H15">
-        <v>7.75833658242634</v>
+        <v>13.6788841151265</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.789085206748235</v>
+        <v>7.955667370156549</v>
       </c>
       <c r="K15">
-        <v>13.43678310189376</v>
+        <v>9.424673358781044</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.54770757181134</v>
+        <v>18.27069793883618</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.16842642774813</v>
+        <v>20.43372024385686</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.04210474887984</v>
+        <v>9.23504937015373</v>
       </c>
       <c r="C16">
-        <v>7.705399466169151</v>
+        <v>6.752202221819388</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>21.12401912693414</v>
+        <v>22.58885023584554</v>
       </c>
       <c r="F16">
-        <v>33.07615845840067</v>
+        <v>39.36106853342696</v>
       </c>
       <c r="G16">
-        <v>17.92820702250098</v>
+        <v>26.05678390913766</v>
       </c>
       <c r="H16">
-        <v>7.834175394336794</v>
+        <v>13.71250160796942</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.814287487841368</v>
+        <v>7.963572926930318</v>
       </c>
       <c r="K16">
-        <v>13.09757000668433</v>
+        <v>9.263990050336378</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.94971208571515</v>
+        <v>18.14908169260043</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.26057346344245</v>
+        <v>20.49364383711483</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.75255235383788</v>
+        <v>9.101415788118707</v>
       </c>
       <c r="C17">
-        <v>7.630230887326071</v>
+        <v>6.723464890264622</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.76721371888329</v>
+        <v>22.52516458376183</v>
       </c>
       <c r="F17">
-        <v>32.63829624676936</v>
+        <v>39.32326483932441</v>
       </c>
       <c r="G17">
-        <v>17.91963938198114</v>
+        <v>26.10984186443737</v>
       </c>
       <c r="H17">
-        <v>7.882246824662436</v>
+        <v>13.73368167153279</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.82991373365389</v>
+        <v>7.968533842427285</v>
       </c>
       <c r="K17">
-        <v>12.8852068717484</v>
+        <v>9.163691075858736</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.57413433157926</v>
+        <v>18.07474221841763</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.32140063541165</v>
+        <v>20.53156640903898</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.58350924041226</v>
+        <v>9.023679835299122</v>
       </c>
       <c r="C18">
-        <v>7.586753137914745</v>
+        <v>6.70688998621149</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>20.56053917694089</v>
+        <v>22.48889235116981</v>
       </c>
       <c r="F18">
-        <v>32.38707022101305</v>
+        <v>39.30249933157628</v>
       </c>
       <c r="G18">
-        <v>17.91858594256617</v>
+        <v>26.14123862807862</v>
       </c>
       <c r="H18">
-        <v>7.91044759746335</v>
+        <v>13.74606862839326</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.838963512206374</v>
+        <v>7.971428148816187</v>
       </c>
       <c r="K18">
-        <v>12.76150278977758</v>
+        <v>9.105379958092035</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.35488474277084</v>
+        <v>18.03209445728169</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.35790338972061</v>
+        <v>20.55380489445724</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.52584440301609</v>
+        <v>8.997211721631784</v>
       </c>
       <c r="C19">
-        <v>7.571991559190259</v>
+        <v>6.701270457343584</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>20.49031736887257</v>
+        <v>22.47667356374752</v>
       </c>
       <c r="F19">
-        <v>32.30212173826232</v>
+        <v>39.29563688049475</v>
       </c>
       <c r="G19">
-        <v>17.91888178659888</v>
+        <v>26.15201971811862</v>
       </c>
       <c r="H19">
-        <v>7.920089039844131</v>
+        <v>13.75029781535408</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.84203836478843</v>
+        <v>7.97241514724884</v>
       </c>
       <c r="K19">
-        <v>12.71935207795602</v>
+        <v>9.085531217209635</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.28009445807046</v>
+        <v>18.01767472707405</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.3705172680919</v>
+        <v>20.5614076669026</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.78363438319071</v>
+        <v>9.115732169272897</v>
       </c>
       <c r="C20">
-        <v>7.638258057019495</v>
+        <v>6.726528864944889</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.80534711479829</v>
+        <v>22.53190717840033</v>
       </c>
       <c r="F20">
-        <v>32.68484452362637</v>
+        <v>39.32718796358183</v>
       </c>
       <c r="G20">
-        <v>17.92014737151899</v>
+        <v>26.10410268050919</v>
       </c>
       <c r="H20">
-        <v>7.877072102526765</v>
+        <v>13.73140582994639</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.828243904888991</v>
+        <v>7.968001511472171</v>
       </c>
       <c r="K20">
-        <v>12.90797481747262</v>
+        <v>9.174432708329894</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.61444878109727</v>
+        <v>18.082644628629</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.31476713024289</v>
+        <v>20.52748534462261</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.61993110703326</v>
+        <v>9.503372516685591</v>
       </c>
       <c r="C21">
-        <v>7.857937691419446</v>
+        <v>6.810819614331757</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.84624892916626</v>
+        <v>22.72169751795731</v>
       </c>
       <c r="F21">
-        <v>33.97776058059965</v>
+        <v>39.44485157165839</v>
       </c>
       <c r="G21">
-        <v>17.97163045194736</v>
+        <v>25.95363678136327</v>
       </c>
       <c r="H21">
-        <v>7.739249266684807</v>
+        <v>13.67037679472763</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.782628655911578</v>
+        <v>7.953660592859932</v>
       </c>
       <c r="K21">
-        <v>13.52303520082675</v>
+        <v>9.465615871668318</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.69941698151818</v>
+        <v>18.30217015543627</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.14601744102369</v>
+        <v>20.41860852167848</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.144337375571</v>
+        <v>9.748544294073911</v>
       </c>
       <c r="C22">
-        <v>7.999155431197121</v>
+        <v>6.865423991106828</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.5129732597091</v>
+        <v>22.84872587615802</v>
       </c>
       <c r="F22">
-        <v>34.82714126920799</v>
+        <v>39.53036492535219</v>
       </c>
       <c r="G22">
-        <v>18.04258379904648</v>
+        <v>25.86320027442919</v>
       </c>
       <c r="H22">
-        <v>7.654462204114354</v>
+        <v>13.63231163179064</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.753343058636471</v>
+        <v>7.944650540948572</v>
       </c>
       <c r="K22">
-        <v>13.91095233386807</v>
+        <v>9.650135970664682</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.38020390053076</v>
+        <v>18.44637498967856</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.05060685018292</v>
+        <v>20.35125672238821</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.86647366162549</v>
+        <v>9.618456898861126</v>
       </c>
       <c r="C23">
-        <v>7.924009144095735</v>
+        <v>6.836328538907561</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.15839728048199</v>
+        <v>22.7806647309626</v>
       </c>
       <c r="F23">
-        <v>34.37345901222052</v>
+        <v>39.4839418020426</v>
       </c>
       <c r="G23">
-        <v>18.00116960926461</v>
+        <v>25.910741454657</v>
       </c>
       <c r="H23">
-        <v>7.69921116082819</v>
+        <v>13.65246122985157</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.768926410861082</v>
+        <v>7.949426287495092</v>
       </c>
       <c r="K23">
-        <v>13.70520727200226</v>
+        <v>9.552194665126921</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.01942301969846</v>
+        <v>18.36935525174464</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.10009865752779</v>
+        <v>20.38685503232029</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.7695902210786</v>
+        <v>9.109262557666728</v>
       </c>
       <c r="C24">
-        <v>7.634629788470574</v>
+        <v>6.725143807576907</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.78811180254693</v>
+        <v>22.52885778541971</v>
       </c>
       <c r="F24">
-        <v>32.6637984556519</v>
+        <v>39.32541130174483</v>
       </c>
       <c r="G24">
-        <v>17.91990568005644</v>
+        <v>26.10669458459255</v>
       </c>
       <c r="H24">
-        <v>7.879409842107885</v>
+        <v>13.7324340829566</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.828998628493335</v>
+        <v>7.968242046793987</v>
       </c>
       <c r="K24">
-        <v>12.89768645321804</v>
+        <v>9.169578431527091</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.59623297963601</v>
+        <v>18.07907166273029</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.3177613796685</v>
+        <v>20.5293290348925</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.49083255568943</v>
+        <v>8.526943137262128</v>
       </c>
       <c r="C25">
-        <v>7.313351067079407</v>
+        <v>6.603502514660818</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.25530462730822</v>
+        <v>22.27104011512022</v>
       </c>
       <c r="F25">
-        <v>30.84431682250363</v>
+        <v>39.19184503696123</v>
       </c>
       <c r="G25">
-        <v>17.97856077570376</v>
+        <v>26.35163339955795</v>
       </c>
       <c r="H25">
-        <v>8.094696566668345</v>
+        <v>13.82652734676365</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.896179147999585</v>
+        <v>7.990103450415507</v>
       </c>
       <c r="K25">
-        <v>11.96726627830372</v>
+        <v>8.733278928053275</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.07850699505635</v>
+        <v>17.77031912355981</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.60985466304882</v>
+        <v>20.69930931127683</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_75/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_75/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.07237213759527</v>
+        <v>12.46675838829506</v>
       </c>
       <c r="C2">
-        <v>6.512864414584072</v>
+        <v>7.070124585798208</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22.09403190657481</v>
+        <v>18.08484778719952</v>
       </c>
       <c r="F2">
-        <v>39.12605133402863</v>
+        <v>29.5332062949033</v>
       </c>
       <c r="G2">
-        <v>26.56048421267059</v>
+        <v>18.13159220308278</v>
       </c>
       <c r="H2">
-        <v>13.90256766727107</v>
+        <v>8.269522885850266</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.007559211981116</v>
+        <v>4.947829996302028</v>
       </c>
       <c r="K2">
-        <v>8.393281421867323</v>
+        <v>11.23262434111772</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.54802599774226</v>
+        <v>14.97958691467923</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.83846181071202</v>
+        <v>12.86767881571581</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.749888442166207</v>
+        <v>11.72136197335982</v>
       </c>
       <c r="C3">
-        <v>6.450974607636262</v>
+        <v>6.901828586555552</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.98251909181441</v>
+        <v>17.26925332247644</v>
       </c>
       <c r="F3">
-        <v>39.1018885575188</v>
+        <v>28.66683206765243</v>
       </c>
       <c r="G3">
-        <v>26.71961725655055</v>
+        <v>18.29562253689268</v>
       </c>
       <c r="H3">
-        <v>13.95833118891351</v>
+        <v>8.397477354072986</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.020243561036033</v>
+        <v>4.984262092333922</v>
       </c>
       <c r="K3">
-        <v>8.152089365108889</v>
+        <v>10.70497925991603</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.40116286893877</v>
+        <v>14.19729497956924</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.94148841720897</v>
+        <v>13.06618509102493</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.545457142182801</v>
+        <v>11.23849130967123</v>
       </c>
       <c r="C4">
-        <v>6.412815969858654</v>
+        <v>6.79705227995918</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.91835575016834</v>
+        <v>16.75906357408198</v>
       </c>
       <c r="F4">
-        <v>39.09715229159593</v>
+        <v>28.14739872865951</v>
       </c>
       <c r="G4">
-        <v>26.82594073110578</v>
+        <v>18.42339375731575</v>
       </c>
       <c r="H4">
-        <v>13.99466129540606</v>
+        <v>8.480514877926121</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.02845537339339</v>
+        <v>5.007355787433895</v>
       </c>
       <c r="K4">
-        <v>7.999041116220683</v>
+        <v>10.36685166807097</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.31306760782924</v>
+        <v>13.69961851894898</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.00904615021305</v>
+        <v>13.19893856239108</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.460652288691719</v>
+        <v>11.03541993019109</v>
       </c>
       <c r="C5">
-        <v>6.397237151163668</v>
+        <v>6.754035588255674</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.89331157538708</v>
+        <v>16.5490777650227</v>
       </c>
       <c r="F5">
-        <v>39.09776444106825</v>
+        <v>27.93912181330428</v>
       </c>
       <c r="G5">
-        <v>26.87142534170224</v>
+        <v>18.48187210929824</v>
       </c>
       <c r="H5">
-        <v>14.00999252208824</v>
+        <v>8.515451237248783</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.031908559026929</v>
+        <v>5.016951532814973</v>
       </c>
       <c r="K5">
-        <v>7.935486393337694</v>
+        <v>10.22560302659628</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.27772253212763</v>
+        <v>13.4926683669242</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.03765694670859</v>
+        <v>13.25565218815618</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.446483796658128</v>
+        <v>11.0013211262912</v>
       </c>
       <c r="C6">
-        <v>6.394648874626623</v>
+        <v>6.746874709036177</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.88922017988474</v>
+        <v>16.51409336174505</v>
       </c>
       <c r="F6">
-        <v>39.09801966868724</v>
+        <v>27.90474992932433</v>
       </c>
       <c r="G6">
-        <v>26.87910802500005</v>
+        <v>18.49195830397683</v>
       </c>
       <c r="H6">
-        <v>14.01257007243376</v>
+        <v>8.521317969993877</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.032488417341966</v>
+        <v>5.018556144076291</v>
       </c>
       <c r="K6">
-        <v>7.924863374582711</v>
+        <v>10.20194316674936</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.2718879015235</v>
+        <v>13.45806144646376</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.04247299056426</v>
+        <v>13.26522414650642</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.544319330832673</v>
+        <v>11.23577805611129</v>
       </c>
       <c r="C7">
-        <v>6.412605970963395</v>
+        <v>6.796473376731203</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.91801350461384</v>
+        <v>16.75623964260944</v>
       </c>
       <c r="F7">
-        <v>39.09715025200465</v>
+        <v>28.14457575516508</v>
       </c>
       <c r="G7">
-        <v>26.82654543158847</v>
+        <v>18.42415697186044</v>
       </c>
       <c r="H7">
-        <v>13.99486592546768</v>
+        <v>8.480981630021509</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.028501511419659</v>
+        <v>5.007484446862972</v>
       </c>
       <c r="K7">
-        <v>7.998188715711542</v>
+        <v>10.36496059923156</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.3125886457797</v>
+        <v>13.6968439716799</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.00942763132252</v>
+        <v>13.19969298090423</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.962579876998153</v>
+        <v>12.21499272077511</v>
       </c>
       <c r="C8">
-        <v>6.491564132924892</v>
+        <v>7.012420444738902</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.05470112598596</v>
+        <v>17.80574424644282</v>
       </c>
       <c r="F8">
-        <v>39.11562588711112</v>
+        <v>29.23202883906608</v>
       </c>
       <c r="G8">
-        <v>26.61355955350428</v>
+        <v>18.1822949974251</v>
       </c>
       <c r="H8">
-        <v>13.92136128297713</v>
+        <v>8.312696184864594</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.011845041423625</v>
+        <v>4.960243163658291</v>
       </c>
       <c r="K8">
-        <v>8.311181160843494</v>
+        <v>11.05368353701511</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.49697527558681</v>
+        <v>14.71357156262893</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.87309279951047</v>
+        <v>12.93379393447373</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.72730455506335</v>
+        <v>13.93439775495984</v>
       </c>
       <c r="C9">
-        <v>6.644671526207248</v>
+        <v>7.422696507768651</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>22.35595706765501</v>
+        <v>19.77854952981486</v>
       </c>
       <c r="F9">
-        <v>39.23180111312269</v>
+        <v>31.45331376369523</v>
       </c>
       <c r="G9">
-        <v>26.26467276258893</v>
+        <v>17.94065156797431</v>
       </c>
       <c r="H9">
-        <v>13.79378355373219</v>
+        <v>8.019540217056221</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.982529103854138</v>
+        <v>4.873218521615264</v>
       </c>
       <c r="K9">
-        <v>8.883271754203442</v>
+        <v>12.28850345829903</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.87362624143405</v>
+        <v>16.56211399367558</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.63987555342926</v>
+        <v>12.50440813401624</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.250178083927327</v>
+        <v>15.07480618199338</v>
       </c>
       <c r="C10">
-        <v>6.755474865346585</v>
+        <v>7.713943128430688</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>22.59616506335212</v>
+        <v>21.164534097876</v>
       </c>
       <c r="F10">
-        <v>39.36551443638805</v>
+        <v>33.12620145771839</v>
       </c>
       <c r="G10">
-        <v>26.05084901273964</v>
+        <v>17.92971944118392</v>
       </c>
       <c r="H10">
-        <v>13.71011255047846</v>
+        <v>7.828766034027762</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.963012390403673</v>
+        <v>4.812512738367251</v>
       </c>
       <c r="K10">
-        <v>9.275349711846923</v>
+        <v>13.12159021202426</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.15757844075192</v>
+        <v>17.99213226793501</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.4893744171612</v>
+        <v>12.25384266187724</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.478724602086116</v>
+        <v>15.56703383766569</v>
       </c>
       <c r="C11">
-        <v>6.805384763727071</v>
+        <v>7.843837188730626</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.70922197085715</v>
+        <v>21.77958180303423</v>
       </c>
       <c r="F11">
-        <v>39.43672348465761</v>
+        <v>33.89370947757811</v>
       </c>
       <c r="G11">
-        <v>25.96292734409658</v>
+        <v>17.96616284860722</v>
       </c>
       <c r="H11">
-        <v>13.67422522809042</v>
+        <v>7.747878041005393</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.954568704086784</v>
+        <v>4.785553361913112</v>
       </c>
       <c r="K11">
-        <v>9.447081107701552</v>
+        <v>13.48399725659894</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.28789861916003</v>
+        <v>18.6307691498164</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.42544191791515</v>
+        <v>12.15610732627523</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.563871658248404</v>
+        <v>15.74962581681947</v>
       </c>
       <c r="C12">
-        <v>6.824202289875052</v>
+        <v>7.892623031533348</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.75254945127564</v>
+        <v>22.01016434598358</v>
       </c>
       <c r="F12">
-        <v>39.46516788355863</v>
+        <v>34.18511061138791</v>
       </c>
       <c r="G12">
-        <v>25.93098811200776</v>
+        <v>17.98633316230596</v>
       </c>
       <c r="H12">
-        <v>13.66094789199036</v>
+        <v>7.718149631049897</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.951433487329205</v>
+        <v>4.775435092824043</v>
       </c>
       <c r="K12">
-        <v>9.511122054316164</v>
+        <v>13.61882188723519</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.3373765677607</v>
+        <v>18.86774595643897</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.40188484843816</v>
+        <v>12.12163183705627</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.545596775074515</v>
+        <v>15.71047026681773</v>
       </c>
       <c r="C13">
-        <v>6.820153431823726</v>
+        <v>7.882134443339214</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.74319565724533</v>
+        <v>21.96060888083124</v>
       </c>
       <c r="F13">
-        <v>39.45897633268266</v>
+        <v>34.12232069178916</v>
       </c>
       <c r="G13">
-        <v>25.93780637417803</v>
+        <v>17.98169943044586</v>
       </c>
       <c r="H13">
-        <v>13.66379351458074</v>
+        <v>7.724511121267817</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.95210594913239</v>
+        <v>4.77761027136059</v>
       </c>
       <c r="K13">
-        <v>9.497374269095751</v>
+        <v>13.58989257940103</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.32671547336532</v>
+        <v>18.81692391804169</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.40692923261631</v>
+        <v>12.12894070065274</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.485758041504187</v>
+        <v>15.58213192657113</v>
       </c>
       <c r="C14">
-        <v>6.806934604365003</v>
+        <v>7.847859044987572</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.71277639107897</v>
+        <v>21.79859899631287</v>
       </c>
       <c r="F14">
-        <v>39.43903406598618</v>
+        <v>33.91766882886878</v>
       </c>
       <c r="G14">
-        <v>25.96027247166823</v>
+        <v>17.96769230447794</v>
       </c>
       <c r="H14">
-        <v>13.67312663436376</v>
+        <v>7.74541385335386</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.954309522369983</v>
+        <v>4.784719130519491</v>
       </c>
       <c r="K14">
-        <v>9.452369834193524</v>
+        <v>13.49513781180948</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.29196683380786</v>
+        <v>18.6503624243919</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.42349077389066</v>
+        <v>12.15321901800522</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.448921335366661</v>
+        <v>15.50302611139854</v>
       </c>
       <c r="C15">
-        <v>6.798826652093746</v>
+        <v>7.82681118789785</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>22.69420994080878</v>
+        <v>21.69905826372407</v>
       </c>
       <c r="F15">
-        <v>39.42701102617331</v>
+        <v>33.79240832066399</v>
       </c>
       <c r="G15">
-        <v>25.97421035281895</v>
+        <v>17.9599540647375</v>
       </c>
       <c r="H15">
-        <v>13.6788841151265</v>
+        <v>7.758336582426356</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.955667370156549</v>
+        <v>4.789085206748132</v>
       </c>
       <c r="K15">
-        <v>9.424673358781044</v>
+        <v>13.43678310189375</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.27069793883618</v>
+        <v>18.54770757181132</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.43372024385686</v>
+        <v>12.16842642774816</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.23504937015373</v>
+        <v>15.04210474887986</v>
       </c>
       <c r="C16">
-        <v>6.752202221819388</v>
+        <v>7.705399466169162</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>22.58885023584554</v>
+        <v>21.12401912693417</v>
       </c>
       <c r="F16">
-        <v>39.36106853342696</v>
+        <v>33.07615845840067</v>
       </c>
       <c r="G16">
-        <v>26.05678390913766</v>
+        <v>17.92820702250106</v>
       </c>
       <c r="H16">
-        <v>13.71250160796942</v>
+        <v>7.834175394336734</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.963572926930318</v>
+        <v>4.814287487841471</v>
       </c>
       <c r="K16">
-        <v>9.263990050336378</v>
+        <v>13.09757000668437</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.14908169260043</v>
+        <v>17.94971208571513</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.49364383711483</v>
+        <v>12.26057346344239</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.101415788118707</v>
+        <v>14.75255235383794</v>
       </c>
       <c r="C17">
-        <v>6.723464890264622</v>
+        <v>7.630230887325872</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>22.52516458376183</v>
+        <v>20.76721371888327</v>
       </c>
       <c r="F17">
-        <v>39.32326483932441</v>
+        <v>32.63829624676926</v>
       </c>
       <c r="G17">
-        <v>26.10984186443737</v>
+        <v>17.91963938198104</v>
       </c>
       <c r="H17">
-        <v>13.73368167153279</v>
+        <v>7.882246824662433</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.968533842427285</v>
+        <v>4.82991373365379</v>
       </c>
       <c r="K17">
-        <v>9.163691075858736</v>
+        <v>12.88520687174841</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.07474221841763</v>
+        <v>17.57413433157929</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.53156640903898</v>
+        <v>12.32140063541156</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.023679835299122</v>
+        <v>14.58350924041227</v>
       </c>
       <c r="C18">
-        <v>6.70688998621149</v>
+        <v>7.586753137914721</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>22.48889235116981</v>
+        <v>20.56053917694088</v>
       </c>
       <c r="F18">
-        <v>39.30249933157628</v>
+        <v>32.38707022101303</v>
       </c>
       <c r="G18">
-        <v>26.14123862807862</v>
+        <v>17.91858594256609</v>
       </c>
       <c r="H18">
-        <v>13.74606862839326</v>
+        <v>7.910447597463286</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.971428148816187</v>
+        <v>4.838963512206409</v>
       </c>
       <c r="K18">
-        <v>9.105379958092035</v>
+        <v>12.76150278977758</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.03209445728169</v>
+        <v>17.35488474277083</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.55380489445724</v>
+        <v>12.35790338972055</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.997211721631784</v>
+        <v>14.52584440301615</v>
       </c>
       <c r="C19">
-        <v>6.701270457343584</v>
+        <v>7.571991559190259</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.47667356374752</v>
+        <v>20.49031736887258</v>
       </c>
       <c r="F19">
-        <v>39.29563688049475</v>
+        <v>32.3021217382623</v>
       </c>
       <c r="G19">
-        <v>26.15201971811862</v>
+        <v>17.91888178659876</v>
       </c>
       <c r="H19">
-        <v>13.75029781535408</v>
+        <v>7.920089039844029</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.97241514724884</v>
+        <v>4.842038364788498</v>
       </c>
       <c r="K19">
-        <v>9.085531217209635</v>
+        <v>12.71935207795604</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.01767472707405</v>
+        <v>17.28009445807048</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.5614076669026</v>
+        <v>12.37051726809181</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.115732169272897</v>
+        <v>14.78363438319073</v>
       </c>
       <c r="C20">
-        <v>6.726528864944889</v>
+        <v>7.638258057019401</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>22.53190717840033</v>
+        <v>20.80534711479837</v>
       </c>
       <c r="F20">
-        <v>39.32718796358183</v>
+        <v>32.68484452362636</v>
       </c>
       <c r="G20">
-        <v>26.10410268050919</v>
+        <v>17.92014737151882</v>
       </c>
       <c r="H20">
-        <v>13.73140582994639</v>
+        <v>7.877072102526752</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.968001511472171</v>
+        <v>4.828243904888992</v>
       </c>
       <c r="K20">
-        <v>9.174432708329894</v>
+        <v>12.90797481747264</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.082644628629</v>
+        <v>17.61444878109727</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.52748534462261</v>
+        <v>12.3147671302428</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.503372516685591</v>
+        <v>15.61993110703322</v>
       </c>
       <c r="C21">
-        <v>6.810819614331757</v>
+        <v>7.857937691419551</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.72169751795731</v>
+        <v>21.84624892916633</v>
       </c>
       <c r="F21">
-        <v>39.44485157165839</v>
+        <v>33.97776058059968</v>
       </c>
       <c r="G21">
-        <v>25.95363678136327</v>
+        <v>17.9716304519473</v>
       </c>
       <c r="H21">
-        <v>13.67037679472763</v>
+        <v>7.739249266684807</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.953660592859932</v>
+        <v>4.782628655911545</v>
       </c>
       <c r="K21">
-        <v>9.465615871668318</v>
+        <v>13.52303520082676</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.30217015543627</v>
+        <v>18.69941698151816</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.41860852167848</v>
+        <v>12.14601744102367</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.748544294073911</v>
+        <v>16.14433737557104</v>
       </c>
       <c r="C22">
-        <v>6.865423991106828</v>
+        <v>7.999155431197284</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.84872587615802</v>
+        <v>22.51297325970913</v>
       </c>
       <c r="F22">
-        <v>39.53036492535219</v>
+        <v>34.82714126920801</v>
       </c>
       <c r="G22">
-        <v>25.86320027442919</v>
+        <v>18.04258379904636</v>
       </c>
       <c r="H22">
-        <v>13.63231163179064</v>
+        <v>7.6544622041143</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.944650540948572</v>
+        <v>4.753343058636473</v>
       </c>
       <c r="K22">
-        <v>9.650135970664682</v>
+        <v>13.91095233386808</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.44637498967856</v>
+        <v>19.38020390053074</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.35125672238821</v>
+        <v>12.05060685018282</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.618456898861126</v>
+        <v>15.86647366162551</v>
       </c>
       <c r="C23">
-        <v>6.836328538907561</v>
+        <v>7.924009144095735</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.7806647309626</v>
+        <v>22.15839728048196</v>
       </c>
       <c r="F23">
-        <v>39.4839418020426</v>
+        <v>34.37345901222049</v>
       </c>
       <c r="G23">
-        <v>25.910741454657</v>
+        <v>18.0011696092646</v>
       </c>
       <c r="H23">
-        <v>13.65246122985157</v>
+        <v>7.699211160828232</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.949426287495092</v>
+        <v>4.768926410861081</v>
       </c>
       <c r="K23">
-        <v>9.552194665126921</v>
+        <v>13.70520727200227</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.36935525174464</v>
+        <v>19.01942301969846</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.38685503232029</v>
+        <v>12.10009865752779</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.109262557666728</v>
+        <v>14.76959022107859</v>
       </c>
       <c r="C24">
-        <v>6.725143807576907</v>
+        <v>7.634629788470565</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>22.52885778541971</v>
+        <v>20.7881118025469</v>
       </c>
       <c r="F24">
-        <v>39.32541130174483</v>
+        <v>32.66379845565179</v>
       </c>
       <c r="G24">
-        <v>26.10669458459255</v>
+        <v>17.91990568005627</v>
       </c>
       <c r="H24">
-        <v>13.7324340829566</v>
+        <v>7.879409842107822</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.968242046793987</v>
+        <v>4.828998628493334</v>
       </c>
       <c r="K24">
-        <v>9.169578431527091</v>
+        <v>12.89768645321801</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.07907166273029</v>
+        <v>17.596232979636</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.5293290348925</v>
+        <v>12.31776137966836</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.526943137262128</v>
+        <v>13.49083255568945</v>
       </c>
       <c r="C25">
-        <v>6.603502514660818</v>
+        <v>7.313351067079273</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.27104011512022</v>
+        <v>19.25530462730826</v>
       </c>
       <c r="F25">
-        <v>39.19184503696123</v>
+        <v>30.84431682250376</v>
       </c>
       <c r="G25">
-        <v>26.35163339955795</v>
+        <v>17.97856077570395</v>
       </c>
       <c r="H25">
-        <v>13.82652734676365</v>
+        <v>8.094696566668341</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.990103450415507</v>
+        <v>4.896179147999551</v>
       </c>
       <c r="K25">
-        <v>8.733278928053275</v>
+        <v>11.96726627830373</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.77031912355981</v>
+        <v>16.07850699505637</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.69930931127683</v>
+        <v>12.60985466304893</v>
       </c>
     </row>
   </sheetData>
